--- a/Master/1709/seq-f测序检查.xlsx
+++ b/Master/1709/seq-f测序检查.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han/Desktop/GrowUp/Master/1709/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25520" windowHeight="15560" tabRatio="500" activeTab="2"/>
+    <workbookView minimized="1" xWindow="0" yWindow="440" windowWidth="25520" windowHeight="15560" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -5849,7 +5849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA193"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
@@ -12645,8 +12645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12657,9 +12657,10 @@
     <col min="4" max="6" width="10.83203125" style="1"/>
     <col min="7" max="7" width="9.83203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="22.6640625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="15.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">

--- a/Master/1709/seq-f测序检查.xlsx
+++ b/Master/1709/seq-f测序检查.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="440" windowWidth="25520" windowHeight="15560" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="13900" yWindow="440" windowWidth="14880" windowHeight="15560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3078" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3105" uniqueCount="455">
   <si>
     <t>A123</t>
   </si>
@@ -1441,6 +1441,14 @@
   </si>
   <si>
     <t>Seq-R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3821F</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5849,8 +5857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8694,6 +8702,45 @@
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2">
+        <v>2</v>
+      </c>
+      <c r="D43" s="2">
+        <v>3</v>
+      </c>
+      <c r="E43" s="2">
+        <v>4</v>
+      </c>
+      <c r="F43" s="2">
+        <v>5</v>
+      </c>
+      <c r="G43" s="2">
+        <v>6</v>
+      </c>
+      <c r="H43" s="2">
+        <v>7</v>
+      </c>
+      <c r="I43" s="2">
+        <v>8</v>
+      </c>
+      <c r="J43" s="2">
+        <v>9</v>
+      </c>
+      <c r="K43" s="2">
+        <v>10</v>
+      </c>
+      <c r="L43" s="2">
+        <v>11</v>
+      </c>
+      <c r="M43" s="2">
+        <v>12</v>
+      </c>
       <c r="O43" s="2" t="s">
         <v>43</v>
       </c>
@@ -8726,6 +8773,21 @@
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
       <c r="O44" s="2" t="s">
         <v>48</v>
       </c>
@@ -8758,6 +8820,21 @@
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
       <c r="O45" s="2" t="s">
         <v>48</v>
       </c>
@@ -8790,6 +8867,45 @@
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="2">
+        <v>2</v>
+      </c>
+      <c r="C46" s="2">
+        <v>2</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1</v>
+      </c>
+      <c r="E46" s="2">
+        <v>3</v>
+      </c>
+      <c r="F46" s="2">
+        <v>3</v>
+      </c>
+      <c r="G46" s="2">
+        <v>2</v>
+      </c>
+      <c r="H46" s="2">
+        <v>2</v>
+      </c>
+      <c r="I46" s="2">
+        <v>2</v>
+      </c>
+      <c r="J46" s="2">
+        <v>1</v>
+      </c>
+      <c r="K46" s="2">
+        <v>2</v>
+      </c>
+      <c r="L46" s="2">
+        <v>2</v>
+      </c>
+      <c r="M46" s="2">
+        <v>2</v>
+      </c>
       <c r="O46" s="2" t="s">
         <v>48</v>
       </c>
@@ -8822,6 +8938,45 @@
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="2">
+        <v>2</v>
+      </c>
+      <c r="C47" s="2">
+        <v>2</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1</v>
+      </c>
+      <c r="E47" s="2">
+        <v>1</v>
+      </c>
+      <c r="F47" s="2">
+        <v>3</v>
+      </c>
+      <c r="G47" s="2">
+        <v>1</v>
+      </c>
+      <c r="H47" s="2">
+        <v>1</v>
+      </c>
+      <c r="I47" s="2">
+        <v>1</v>
+      </c>
+      <c r="J47" s="2">
+        <v>1</v>
+      </c>
+      <c r="K47" s="2">
+        <v>1</v>
+      </c>
+      <c r="L47" s="2">
+        <v>1</v>
+      </c>
+      <c r="M47" s="2">
+        <v>1</v>
+      </c>
       <c r="O47" s="2" t="s">
         <v>48</v>
       </c>
@@ -8854,6 +9009,21 @@
       </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
       <c r="O48" s="2" t="s">
         <v>48</v>
       </c>
@@ -8885,7 +9055,34 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="15:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2">
+        <v>2</v>
+      </c>
+      <c r="E49" s="2">
+        <v>3</v>
+      </c>
+      <c r="F49" s="2">
+        <v>2</v>
+      </c>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2">
+        <v>2</v>
+      </c>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2">
+        <v>2</v>
+      </c>
+      <c r="M49" s="2">
+        <v>2</v>
+      </c>
       <c r="O49" s="2" t="s">
         <v>48</v>
       </c>
@@ -8917,7 +9114,32 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="15:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" s="2">
+        <v>2</v>
+      </c>
+      <c r="C50" s="2">
+        <v>2</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2">
+        <v>2</v>
+      </c>
+      <c r="H50" s="2">
+        <v>2</v>
+      </c>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2">
+        <v>3</v>
+      </c>
       <c r="O50" s="2" t="s">
         <v>48</v>
       </c>
@@ -8949,7 +9171,42 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="15:26" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2">
+        <v>2</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2">
+        <v>3</v>
+      </c>
+      <c r="F51" s="2">
+        <v>2</v>
+      </c>
+      <c r="G51" s="2">
+        <v>2</v>
+      </c>
+      <c r="H51" s="2">
+        <v>2</v>
+      </c>
+      <c r="I51" s="2">
+        <v>2</v>
+      </c>
+      <c r="J51" s="2">
+        <v>2</v>
+      </c>
+      <c r="K51" s="2">
+        <v>2</v>
+      </c>
+      <c r="L51" s="2">
+        <v>2</v>
+      </c>
+      <c r="M51" s="2">
+        <v>3</v>
+      </c>
       <c r="O51" s="2" t="s">
         <v>48</v>
       </c>
@@ -8981,7 +9238,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="15:26" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="O52" s="2" t="s">
         <v>48</v>
       </c>
@@ -9013,7 +9270,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="15:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="O53" s="2" t="s">
         <v>48</v>
       </c>
@@ -9045,7 +9302,46 @@
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="15:26" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B54" s="2">
+        <v>1</v>
+      </c>
+      <c r="C54" s="2">
+        <v>2</v>
+      </c>
+      <c r="D54" s="2">
+        <v>3</v>
+      </c>
+      <c r="E54" s="2">
+        <v>4</v>
+      </c>
+      <c r="F54" s="2">
+        <v>5</v>
+      </c>
+      <c r="G54" s="2">
+        <v>6</v>
+      </c>
+      <c r="H54" s="2">
+        <v>7</v>
+      </c>
+      <c r="I54" s="2">
+        <v>8</v>
+      </c>
+      <c r="J54" s="2">
+        <v>9</v>
+      </c>
+      <c r="K54" s="2">
+        <v>10</v>
+      </c>
+      <c r="L54" s="2">
+        <v>11</v>
+      </c>
+      <c r="M54" s="2">
+        <v>12</v>
+      </c>
       <c r="O54" s="2" t="s">
         <v>48</v>
       </c>
@@ -9077,7 +9373,40 @@
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="15:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" s="2">
+        <v>2</v>
+      </c>
+      <c r="C55" s="2">
+        <v>2</v>
+      </c>
+      <c r="D55" s="2">
+        <v>3</v>
+      </c>
+      <c r="E55" s="2">
+        <v>2</v>
+      </c>
+      <c r="F55" s="2">
+        <v>2</v>
+      </c>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2">
+        <v>2</v>
+      </c>
+      <c r="K55" s="2">
+        <v>2</v>
+      </c>
+      <c r="L55" s="2">
+        <v>2</v>
+      </c>
+      <c r="M55" s="2">
+        <v>2</v>
+      </c>
       <c r="O55" s="2" t="s">
         <v>48</v>
       </c>
@@ -9109,7 +9438,28 @@
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="15:26" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2">
+        <v>2</v>
+      </c>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2">
+        <v>3</v>
+      </c>
+      <c r="M56" s="2">
+        <v>2</v>
+      </c>
       <c r="O56" s="2" t="s">
         <v>48</v>
       </c>
@@ -9141,7 +9491,22 @@
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="15:26" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
       <c r="O57" s="2" t="s">
         <v>48</v>
       </c>
@@ -9173,7 +9538,30 @@
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="15:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2">
+        <v>2</v>
+      </c>
+      <c r="J58" s="2">
+        <v>2</v>
+      </c>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2">
+        <v>2</v>
+      </c>
+      <c r="M58" s="2">
+        <v>3</v>
+      </c>
       <c r="O58" s="2" t="s">
         <v>48</v>
       </c>
@@ -9205,7 +9593,34 @@
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="15:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59" s="2">
+        <v>3</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2">
+        <v>3</v>
+      </c>
+      <c r="E59" s="2">
+        <v>2</v>
+      </c>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2">
+        <v>3</v>
+      </c>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2">
+        <v>2</v>
+      </c>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2">
+        <v>2</v>
+      </c>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
       <c r="O59" s="2" t="s">
         <v>48</v>
       </c>
@@ -9237,7 +9652,22 @@
         <v>48</v>
       </c>
     </row>
-    <row r="60" spans="15:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
       <c r="O60" s="2" t="s">
         <v>48</v>
       </c>
@@ -9269,7 +9699,38 @@
         <v>48</v>
       </c>
     </row>
-    <row r="61" spans="15:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B61" s="2">
+        <v>2</v>
+      </c>
+      <c r="C61" s="2">
+        <v>3</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2">
+        <v>2</v>
+      </c>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2">
+        <v>2</v>
+      </c>
+      <c r="H61" s="2">
+        <v>2</v>
+      </c>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2">
+        <v>2</v>
+      </c>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2">
+        <v>2</v>
+      </c>
+      <c r="M61" s="2">
+        <v>2</v>
+      </c>
       <c r="O61" s="2" t="s">
         <v>48</v>
       </c>
@@ -9301,7 +9762,36 @@
         <v>48</v>
       </c>
     </row>
-    <row r="62" spans="15:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B62" s="2">
+        <v>2</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2">
+        <v>2</v>
+      </c>
+      <c r="F62" s="2">
+        <v>2</v>
+      </c>
+      <c r="G62" s="2">
+        <v>2</v>
+      </c>
+      <c r="H62" s="2">
+        <v>2</v>
+      </c>
+      <c r="I62" s="2">
+        <v>2</v>
+      </c>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2">
+        <v>2</v>
+      </c>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
       <c r="O62" s="2" t="s">
         <v>48</v>
       </c>
@@ -9333,7 +9823,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="15:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
       <c r="O63" s="2" t="s">
         <v>48</v>
       </c>
@@ -9365,7 +9855,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="64" spans="15:26" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
       <c r="O64" s="2" t="s">
         <v>43</v>
       </c>
@@ -9397,7 +9887,46 @@
         <v>48</v>
       </c>
     </row>
-    <row r="65" spans="15:26" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B65" s="2">
+        <v>1</v>
+      </c>
+      <c r="C65" s="2">
+        <v>2</v>
+      </c>
+      <c r="D65" s="2">
+        <v>3</v>
+      </c>
+      <c r="E65" s="2">
+        <v>4</v>
+      </c>
+      <c r="F65" s="2">
+        <v>5</v>
+      </c>
+      <c r="G65" s="2">
+        <v>6</v>
+      </c>
+      <c r="H65" s="2">
+        <v>7</v>
+      </c>
+      <c r="I65" s="2">
+        <v>8</v>
+      </c>
+      <c r="J65" s="2">
+        <v>9</v>
+      </c>
+      <c r="K65" s="2">
+        <v>10</v>
+      </c>
+      <c r="L65" s="2">
+        <v>11</v>
+      </c>
+      <c r="M65" s="2">
+        <v>12</v>
+      </c>
       <c r="O65" s="2" t="s">
         <v>48</v>
       </c>
@@ -9429,7 +9958,22 @@
         <v>48</v>
       </c>
     </row>
-    <row r="66" spans="15:26" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
       <c r="O66" s="2" t="s">
         <v>43</v>
       </c>
@@ -9461,7 +10005,22 @@
         <v>48</v>
       </c>
     </row>
-    <row r="67" spans="15:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
       <c r="O67" s="2" t="s">
         <v>48</v>
       </c>
@@ -9493,7 +10052,22 @@
         <v>48</v>
       </c>
     </row>
-    <row r="68" spans="15:26" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
       <c r="O68" s="2" t="s">
         <v>43</v>
       </c>
@@ -9525,7 +10099,22 @@
         <v>48</v>
       </c>
     </row>
-    <row r="69" spans="15:26" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
       <c r="O69" s="2" t="s">
         <v>48</v>
       </c>
@@ -9557,7 +10146,22 @@
         <v>48</v>
       </c>
     </row>
-    <row r="70" spans="15:26" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
       <c r="O70" s="2" t="s">
         <v>48</v>
       </c>
@@ -9589,7 +10193,22 @@
         <v>48</v>
       </c>
     </row>
-    <row r="71" spans="15:26" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
       <c r="O71" s="2" t="s">
         <v>48</v>
       </c>
@@ -9621,7 +10240,22 @@
         <v>48</v>
       </c>
     </row>
-    <row r="72" spans="15:26" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
       <c r="O72" s="2" t="s">
         <v>43</v>
       </c>
@@ -9653,7 +10287,22 @@
         <v>48</v>
       </c>
     </row>
-    <row r="73" spans="15:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
       <c r="O73" s="2" t="s">
         <v>43</v>
       </c>
@@ -9685,7 +10334,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="74" spans="15:26" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
       <c r="O74" s="2" t="s">
         <v>43</v>
       </c>
@@ -9717,7 +10366,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="75" spans="15:26" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
       <c r="O75" s="2" t="s">
         <v>43</v>
       </c>
@@ -9749,7 +10398,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="76" spans="15:26" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
       <c r="O76" s="2" t="s">
         <v>40</v>
       </c>
@@ -9781,7 +10430,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="15:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
       <c r="O77" s="2" t="s">
         <v>43</v>
       </c>
@@ -9813,7 +10462,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="78" spans="15:26" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
       <c r="O78" s="2" t="s">
         <v>40</v>
       </c>
@@ -9845,7 +10494,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="79" spans="15:26" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
       <c r="O79" s="2" t="s">
         <v>43</v>
       </c>
@@ -9877,7 +10526,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="80" spans="15:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
       <c r="O80" s="2" t="s">
         <v>43</v>
       </c>
@@ -12645,7 +13294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+    <sheetView topLeftCell="A82" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>

--- a/Master/1709/seq-f测序检查.xlsx
+++ b/Master/1709/seq-f测序检查.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5062" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5062" uniqueCount="476">
   <si>
     <t>A123</t>
   </si>
@@ -1511,6 +1511,10 @@
   </si>
   <si>
     <t>ERF31-1</t>
+  </si>
+  <si>
+    <t>3995F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -18701,8 +18705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18713,7 +18717,7 @@
         <v>453</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>454</v>
+        <v>475</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>458</v>
@@ -18735,7 +18739,7 @@
         <v>453</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>454</v>
+        <v>475</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>458</v>
